--- a/webアプリ作成/webアプリの作成.xlsx
+++ b/webアプリ作成/webアプリの作成.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">▼To Do</t>
   </si>
@@ -80,6 +80,39 @@
   </si>
   <si>
     <t xml:space="preserve">・ローカルDBの立て方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・プロジェクトの進め方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・ブランチの構成と役割</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正式リリース用のブランチ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本番環境で実際に使用される資産をアップロードする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・develop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開発環境用のブランチ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">結合テストなどの実施に利用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このブランチから、各人が編集するローカルブランチを切る。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developブランチから切られた作業用ブランチ。</t>
   </si>
 </sst>
 </file>
@@ -194,10 +227,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB26" activeCellId="0" sqref="AB26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P57" activeCellId="0" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -212,16 +245,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -269,74 +302,129 @@
       <c r="C18" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="2"/>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
